--- a/Performance_testing/performance_matrix.xlsx
+++ b/Performance_testing/performance_matrix.xlsx
@@ -13,14 +13,15 @@
   </bookViews>
   <sheets>
     <sheet name="Final" sheetId="8" r:id="rId1"/>
-    <sheet name="WT Data" sheetId="9" r:id="rId2"/>
-    <sheet name="Data" sheetId="1" r:id="rId3"/>
-    <sheet name="SFTP" sheetId="3" r:id="rId4"/>
-    <sheet name="SSH_Shell_action" sheetId="6" r:id="rId5"/>
-    <sheet name="Rsync" sheetId="4" r:id="rId6"/>
-    <sheet name="Compression" sheetId="7" r:id="rId7"/>
-    <sheet name="Same Data Center" sheetId="5" r:id="rId8"/>
-    <sheet name="commands" sheetId="2" r:id="rId9"/>
+    <sheet name="RunDir" sheetId="10" r:id="rId2"/>
+    <sheet name="WT Data" sheetId="9" r:id="rId3"/>
+    <sheet name="Data" sheetId="1" r:id="rId4"/>
+    <sheet name="SFTP" sheetId="3" r:id="rId5"/>
+    <sheet name="SSH_Shell_action" sheetId="6" r:id="rId6"/>
+    <sheet name="Rsync" sheetId="4" r:id="rId7"/>
+    <sheet name="Compression" sheetId="7" r:id="rId8"/>
+    <sheet name="Same Data Center" sheetId="5" r:id="rId9"/>
+    <sheet name="commands" sheetId="2" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="153">
   <si>
     <t>SNO</t>
   </si>
@@ -306,9 +307,6 @@
     <t>SFTP using Java code(JSCH API)</t>
   </si>
   <si>
-    <t>Shell action in Oozie</t>
-  </si>
-  <si>
     <t>/ptmp/og510a/ecfd/WTData/DR0151-populated</t>
   </si>
   <si>
@@ -460,6 +458,54 @@
   </si>
   <si>
     <t>37 Minutes</t>
+  </si>
+  <si>
+    <t>Shell action in Oozie (POC)</t>
+  </si>
+  <si>
+    <t>Shell action in Oozie(POC)</t>
+  </si>
+  <si>
+    <t>8 Seconds</t>
+  </si>
+  <si>
+    <t>Process Name</t>
+  </si>
+  <si>
+    <t>RunDir Size</t>
+  </si>
+  <si>
+    <t>RunDir Size after Compression</t>
+  </si>
+  <si>
+    <t>RunDir Size after Tar</t>
+  </si>
+  <si>
+    <t>AeroDB</t>
+  </si>
+  <si>
+    <t>eSlugg</t>
+  </si>
+  <si>
+    <t>BCFD</t>
+  </si>
+  <si>
+    <t>ImportExportDAServer</t>
+  </si>
+  <si>
+    <t>21 minutes</t>
+  </si>
+  <si>
+    <t>OverFlow</t>
+  </si>
+  <si>
+    <t>Time Taken in Tar creation</t>
+  </si>
+  <si>
+    <t>Time taken in Compression</t>
+  </si>
+  <si>
+    <t>2 min</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1064,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1061,10 +1107,10 @@
         <v>84</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>86</v>
+        <v>128</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1212,10 +1258,10 @@
         <v>84</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>86</v>
+        <v>128</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1232,17 +1278,19 @@
         <v>76</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="F10" s="1"/>
+        <v>124</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="G10" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -1256,20 +1304,22 @@
         <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F11" s="1"/>
+        <v>125</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="G11" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -1283,20 +1333,22 @@
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F12" s="1"/>
+        <v>126</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>152</v>
+      </c>
       <c r="G12" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -1310,20 +1362,22 @@
         <v>3</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E13" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="H13" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>133</v>
-      </c>
       <c r="I13" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1338,13 +1392,13 @@
         <v>2</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>72</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1384,7 +1438,7 @@
         <v>76</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1404,7 +1458,7 @@
         <v>79</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1424,10 +1478,122 @@
         <v>82</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="255.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A33" display="curl -k -u svchdphdo4ecfd:b949naLkhg -T test.txt 'https://hdo4241-23.ca.boeing.com:8442/gateway/BOEINGHDO4/webhdfs/data/v1/webhdfs/v1/user/svchdphdo4ecfd/webhfs_test/test.txt?_=AAAACAAAABAAAAEAJ-K6XcfLDgQnOZwq5zUBf8KJZnUcgDOJYOjn3LHGM7djljUzSsIkPTybYEY3BW"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1435,10 +1601,131 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="24.88671875" customWidth="1"/>
+    <col min="6" max="7" width="26.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1461,60 +1748,60 @@
     </row>
     <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="C3" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="D3" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>91</v>
-      </c>
       <c r="F3" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G3" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="I3" s="22" t="s">
         <v>101</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="D4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -1525,36 +1812,36 @@
     </row>
     <row r="8" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1562,12 +1849,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A2" sqref="A2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1722,7 +2009,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1739,10 +2026,10 @@
         <v>76</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1756,11 +2043,11 @@
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1774,11 +2061,11 @@
         <v>3</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1792,11 +2079,11 @@
         <v>3</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1805,7 +2092,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -1894,7 +2181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -1982,7 +2269,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -2084,7 +2371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -2116,7 +2403,7 @@
         <v>72</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -2201,7 +2488,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -2324,116 +2611,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="255.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A33" display="curl -k -u svchdphdo4ecfd:b949naLkhg -T test.txt 'https://hdo4241-23.ca.boeing.com:8442/gateway/BOEINGHDO4/webhdfs/data/v1/webhdfs/v1/user/svchdphdo4ecfd/webhfs_test/test.txt?_=AAAACAAAABAAAAEAJ-K6XcfLDgQnOZwq5zUBf8KJZnUcgDOJYOjn3LHGM7djljUzSsIkPTybYEY3BW"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>